--- a/data/223/SIDRA/Table 7060.xlsx
+++ b/data/223/SIDRA/Table 7060.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Tabela 7060 - IPCA - Variação mensal, acumulada no ano, acumulada em 12 meses e peso mensal, para o índice geral, grupos, subgrupos, itens e subitens de produtos e serviços (a partir de janeiro/2020)</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>novembro 2021</t>
+  </si>
+  <si>
+    <t>dezembro 2021</t>
+  </si>
+  <si>
+    <t>janeiro 2022</t>
+  </si>
+  <si>
+    <t>fevereiro 2022</t>
   </si>
   <si>
     <t>1.Alimentação e bebidas</t>
@@ -251,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -259,7 +268,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="24" width="10"/>
+    <col min="1" max="27" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -335,6 +344,15 @@
       <c r="X1" s="1">
         <v/>
       </c>
+      <c r="Y1" s="1">
+        <v/>
+      </c>
+      <c r="Z1" s="1">
+        <v/>
+      </c>
+      <c r="AA1" s="1">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -409,6 +427,15 @@
       <c r="X2" s="2">
         <v/>
       </c>
+      <c r="Y2" s="2">
+        <v/>
+      </c>
+      <c r="Z2" s="2">
+        <v/>
+      </c>
+      <c r="AA2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -483,6 +510,15 @@
       <c r="X3" s="2">
         <v/>
       </c>
+      <c r="Y3" s="2">
+        <v/>
+      </c>
+      <c r="Z3" s="2">
+        <v/>
+      </c>
+      <c r="AA3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -557,6 +593,15 @@
       <c r="X4" s="2">
         <v/>
       </c>
+      <c r="Y4" s="2">
+        <v/>
+      </c>
+      <c r="Z4" s="2">
+        <v/>
+      </c>
+      <c r="AA4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -631,43 +676,52 @@
       <c r="X5" t="s" s="2">
         <v>27</v>
       </c>
+      <c r="Y5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M6" s="4">
         <v>14.09</v>
@@ -705,43 +759,52 @@
       <c r="X6" s="4">
         <v>8.90</v>
       </c>
+      <c r="Y6" s="4">
+        <v>7.94</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>8.04</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>9.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M7" s="4">
         <v>5.25</v>
@@ -779,43 +842,52 @@
       <c r="X7" s="4">
         <v>15.45</v>
       </c>
+      <c r="Y7" s="4">
+        <v>13.05</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>14.45</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>14.61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M8" s="4">
         <v>6.00</v>
@@ -853,43 +925,52 @@
       <c r="X8" s="4">
         <v>12.49</v>
       </c>
+      <c r="Y8" s="4">
+        <v>12.07</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>13.13</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>14.37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M9" s="4">
         <v>-1.13</v>
@@ -927,43 +1008,52 @@
       <c r="X9" s="4">
         <v>8.72</v>
       </c>
+      <c r="Y9" s="4">
+        <v>10.31</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>11.58</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>12.13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M10" s="4">
         <v>1.03</v>
@@ -1001,43 +1091,52 @@
       <c r="X10" s="4">
         <v>21.97</v>
       </c>
+      <c r="Y10" s="4">
+        <v>21.03</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>20.41</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>18.26</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M11" s="4">
         <v>1.50</v>
@@ -1075,43 +1174,52 @@
       <c r="X11" s="4">
         <v>3.34</v>
       </c>
+      <c r="Y11" s="4">
+        <v>3.70</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>3.59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M12" s="4">
         <v>1.03</v>
@@ -1149,43 +1257,52 @@
       <c r="X12" s="4">
         <v>4.82</v>
       </c>
+      <c r="Y12" s="4">
+        <v>4.73</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>5.14</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>5.63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M13" s="4">
         <v>1.13</v>
@@ -1223,43 +1340,52 @@
       <c r="X13" s="4">
         <v>3.26</v>
       </c>
+      <c r="Y13" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>6.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M14" s="4">
         <v>3.42</v>
@@ -1297,10 +1423,19 @@
       <c r="X14" s="4">
         <v>1.44</v>
       </c>
+      <c r="Y14" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v/>
@@ -1369,17 +1504,26 @@
         <v/>
       </c>
       <c r="X15" s="2">
+        <v/>
+      </c>
+      <c r="Y15" s="2">
+        <v/>
+      </c>
+      <c r="Z15" s="2">
+        <v/>
+      </c>
+      <c r="AA15" s="2">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A3:AA3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:X4"/>
-    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="B4:AA4"/>
+    <mergeCell ref="A15:AA15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1400,17 +1544,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="5">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="5">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
